--- a/Documents/QA.xlsx
+++ b/Documents/QA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>HELLo</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -342,12 +342,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Documents/QA.xlsx
+++ b/Documents/QA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066EF077-9B17-4AB7-A235-184CBAF91D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>x</t>
+    <t>Câu 1</t>
+  </si>
+  <si>
+    <t>Hoi gi day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -45,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,12 +57,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,21 +501,463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="G5:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>